--- a/Modelo de dominio enriquecido/Proveedor-Modelo de dominio enriquecido.xlsx
+++ b/Modelo de dominio enriquecido/Proveedor-Modelo de dominio enriquecido.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan pablo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTEBAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2BBCFE-A8F0-4F6E-A4BC-D8D8F2EB6AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428C7870-B5D8-4F19-B88B-23FBB2CB867F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
     <sheet name="Listado Objetos de Dominio" sheetId="67" r:id="rId2"/>
-    <sheet name="Producto" sheetId="66" r:id="rId3"/>
+    <sheet name="Tienda" sheetId="68" r:id="rId3"/>
     <sheet name="Proveedor" sheetId="24" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$1:$B$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="132">
   <si>
     <t>Descripción</t>
   </si>
@@ -143,12 +146,6 @@
     <t>¿Qué hago?</t>
   </si>
   <si>
-    <t xml:space="preserve">Producto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objeto de dominio el cual nos representa un articulo que se puede comprar en la tienda </t>
-  </si>
-  <si>
     <t xml:space="preserve">Proveedor </t>
   </si>
   <si>
@@ -170,57 +167,18 @@
     <t>No</t>
   </si>
   <si>
-    <t>Atributo que contiene un identificador que hace unico a cada producto</t>
-  </si>
-  <si>
-    <t>Nombre del producto</t>
-  </si>
-  <si>
     <t>Alfanumerico</t>
   </si>
   <si>
     <t>solo letras o numeros(con tilde o sin tilde) y espacios</t>
   </si>
   <si>
-    <t>Atributo que contiene el nombre que identifica a un producto</t>
-  </si>
-  <si>
-    <t>Atributo que contiene la descripcion la cual posee un producto</t>
-  </si>
-  <si>
-    <t>Precio</t>
-  </si>
-  <si>
-    <t>Solo numeros</t>
-  </si>
-  <si>
-    <t>Atributo que contiene el precio el cual le da valor a un producto</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Atributo que contiene la categoria a la cual pertenece un producto</t>
-  </si>
-  <si>
-    <t>Marca</t>
-  </si>
-  <si>
-    <t>Atributo que contiene la marca que posee un producto</t>
-  </si>
-  <si>
     <t>Atributo que contiene un identificador que hace unico a cada proveedor</t>
   </si>
   <si>
     <t>Atributo que contiene el nombre que identifica a un proveedor</t>
   </si>
   <si>
-    <t>nombre de un producto unico</t>
-  </si>
-  <si>
-    <t>No es posible tener el mismo nombre y marca para mas de un producto</t>
-  </si>
-  <si>
     <t>Atrbuto que contiene la descripcion de servicios de un proveedor</t>
   </si>
   <si>
@@ -233,102 +191,12 @@
     <t>Propia</t>
   </si>
   <si>
-    <t>Crear producto</t>
-  </si>
-  <si>
-    <t>Consultar producto</t>
-  </si>
-  <si>
-    <t>Modificar producto</t>
-  </si>
-  <si>
-    <t>Eliminar producto</t>
-  </si>
-  <si>
-    <t>Accion la cual es la encargada de poner en servicio el producto que se necesita</t>
-  </si>
-  <si>
-    <t>Accion la cual es la encargada de dejar consultar un producto que sea necesario</t>
-  </si>
-  <si>
-    <t>Accion la cual es encargada de modificar un producto que sea necesario</t>
-  </si>
-  <si>
-    <t>Accion la cual es encargada de eliminar un producto seleccionado</t>
-  </si>
-  <si>
-    <t>Producto</t>
-  </si>
-  <si>
-    <t>Contiene la informacion del producto que se quiere consultar</t>
-  </si>
-  <si>
-    <t>contiene la informacion del producto que se quiere crear</t>
-  </si>
-  <si>
-    <t>Contiene la informacion del producto que se quiere modificar</t>
-  </si>
-  <si>
-    <t>Contiene la informacion del producto que se quiere eliminar</t>
-  </si>
-  <si>
-    <t>Pol-Producto-001</t>
-  </si>
-  <si>
-    <t>no puede existir mas de un producto con el mismo nombre y marca</t>
-  </si>
-  <si>
-    <t>Pol-Producto-002</t>
-  </si>
-  <si>
-    <t>Los datos deben ser validos a nivel de tipo de dato, obigatoriedad, formato y rango</t>
-  </si>
-  <si>
-    <t>Pol-Producto-003</t>
-  </si>
-  <si>
-    <t>si se envian parametros de consulta deben ser validos a nivel tipo de dato, longitud, obligatoriedad, formato y rango</t>
-  </si>
-  <si>
-    <t>Pol-Producto-004</t>
-  </si>
-  <si>
-    <t>Debe existir el producto que se este modificando</t>
-  </si>
-  <si>
-    <t>Pol-Producto-005</t>
-  </si>
-  <si>
-    <t>Debe existir el producto que se este eliminando</t>
-  </si>
-  <si>
-    <t>Se debe indicar que ya existe un producto con el mismo nombre y marca</t>
-  </si>
-  <si>
     <t>Se debe indicar que los datos no son validos</t>
   </si>
   <si>
     <t>Se debe indicar que los datos de consulta no son validos</t>
   </si>
   <si>
-    <t>Se debe indicar que el producto que esta modificando no existe</t>
-  </si>
-  <si>
-    <t>Se debe indicar que el producto que esta eliminando no existe</t>
-  </si>
-  <si>
-    <t>Cancelar creacion del producto</t>
-  </si>
-  <si>
-    <t>Cancelar consulta del producto</t>
-  </si>
-  <si>
-    <t>Cancelar modificacion del producto</t>
-  </si>
-  <si>
-    <t>Cancelar eliminacion del producto</t>
-  </si>
-  <si>
     <t>Crear proveedor</t>
   </si>
   <si>
@@ -435,13 +303,151 @@
   </si>
   <si>
     <t>Cancelar eliminacion de proveedor</t>
+  </si>
+  <si>
+    <t>Tienda</t>
+  </si>
+  <si>
+    <t>Objeto dominio que representa la tienda física o virtual donde se pueden realizar las compras.</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>Numerico Entero</t>
+  </si>
+  <si>
+    <t>Atributo que contiene un identificador que hace unica a cada tienda</t>
+  </si>
+  <si>
+    <t>Nombre Tienda</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el nombre que identifica a una tienda</t>
+  </si>
+  <si>
+    <t>sede</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la sede a la cual pertenece una tienda</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la ciudad a la cual pertenece una tienda</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el departamento a la cual pertenece una tienda</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la dirección que posee una tienda</t>
+  </si>
+  <si>
+    <t>TipoSede</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el tipo de sede a la cual pertenece una tienda</t>
+  </si>
+  <si>
+    <t>Nombre de tienda unico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No es posible tener mas de una tienda con el mismo nombre </t>
+  </si>
+  <si>
+    <t>Crear Tienda</t>
+  </si>
+  <si>
+    <t>Acccion la cual se encarga de poner en servicio una tienda para vender productos para el servicio al cliente.</t>
+  </si>
+  <si>
+    <t>Contiene la informacion de la tienda que se quiere crear.</t>
+  </si>
+  <si>
+    <t>Pol-Tienda-001</t>
+  </si>
+  <si>
+    <t>No se puede crear una nueva tienda sin darle una ubicación precisa.</t>
+  </si>
+  <si>
+    <t>Se debe indicar que la nueva ubicación existe en otra tienda y darle toda la informacion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se cancela la creacion de tienda </t>
+  </si>
+  <si>
+    <t>Pol-Tienda-002</t>
+  </si>
+  <si>
+    <t>No se puede crear una nueva tienda sin darle un nombre a la tienda y a la sede, tiene que cumplir que ninguno de estos nombres se repita.</t>
+  </si>
+  <si>
+    <t>Se debe indicar que existe otra tienda con el mismo nombre.</t>
+  </si>
+  <si>
+    <t>Modificar Tienda</t>
+  </si>
+  <si>
+    <t>Accion la cual se encarga de modificar la tienda y lo que contendra.</t>
+  </si>
+  <si>
+    <t>Contiene la informacion de la tienda que se quiere modificar.</t>
+  </si>
+  <si>
+    <t>Los datos del vendedor de la tienda se podran modificar teniendo en cuenta que no se puede repetir un mismo vendedor en diferentes tiendas.</t>
+  </si>
+  <si>
+    <t>Se debe indicar con los datos del vendedor que estan en otra tienda distinta a la asignada.</t>
+  </si>
+  <si>
+    <t>Se cancela la modificacion de la tienda</t>
+  </si>
+  <si>
+    <t>El nombre de la tienda y sede solo se podran modificar teniendo en cuenta el parametro de que no se puede repetir.</t>
+  </si>
+  <si>
+    <t>Consultar Tienda</t>
+  </si>
+  <si>
+    <t>Accion la cual se encarga de consultar lo que contiene la tienda.</t>
+  </si>
+  <si>
+    <t>Contiene la informacion de la tienda que se quiere consultar.</t>
+  </si>
+  <si>
+    <t>si se envian parametros de consulta deben ser validos a nivel tipo de dato, longitud, obligatoriedad, formato, rango</t>
+  </si>
+  <si>
+    <t>Se cancela consultar tienda</t>
+  </si>
+  <si>
+    <t>Eliminar Tienda</t>
+  </si>
+  <si>
+    <t>Accion la cual se encarga de cerrar una tienda al publico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe existir la tienda que se esta eliminando </t>
+  </si>
+  <si>
+    <t>Se debe indicar que la tienda que se quiere eliminar no existe.</t>
+  </si>
+  <si>
+    <t>Se cancela eliminar tienda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,13 +496,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -516,18 +515,18 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -598,7 +597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -761,6 +760,169 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -773,222 +935,22 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -996,10 +958,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1089,9 +1051,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1122,34 +1081,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1159,6 +1091,239 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1171,321 +1336,210 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1518,23 +1572,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>739588</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>159123</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>115137</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57817</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E69722-F957-4368-9441-BCC60B0A30AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490A6F2B-BD03-E906-063F-87360FB93E07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,8 +1604,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3025588" y="0"/>
-          <a:ext cx="8442512" cy="4921623"/>
+          <a:off x="4303059" y="833718"/>
+          <a:ext cx="10012172" cy="4782217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1563,10 +1617,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Modelo de dominio anémico"/>
+      <sheetName val="Listado Objetos de Dominio"/>
+      <sheetName val="Tienda"/>
+      <sheetName val="Cliente"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Tienda</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>Objeto dominio que representa la tienda física o virtual donde se pueden realizar las compras.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1604,7 +1689,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1710,7 +1795,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1852,7 +1937,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1866,12 +1951,12 @@
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1"/>
     </row>
   </sheetData>
@@ -1883,64 +1968,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="147" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="148" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="148" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B3" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="80" t="s">
+      <c r="C3" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="83" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="'Producto '!A1" display="'Producto '!A1" xr:uid="{587F11D7-D6F0-462E-B84B-F49FEFDD197D}"/>
     <hyperlink ref="A3" location="'Proveedor '!A1" display="'Proveedor '!A1" xr:uid="{31684260-7815-43E5-BB51-C9D0D974325C}"/>
+    <hyperlink ref="A2" location="Tienda!A1" display="Tienda" xr:uid="{2A07CE31-F01E-45B9-AE4A-90C5ECD026A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1948,106 +2029,106 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
-  <dimension ref="A1:T25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9B9786-5DD3-43FE-A0C1-B8C965A09805}">
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="P9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="96.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="1"/>
+    <col min="16" max="16" width="135" style="1" customWidth="1"/>
+    <col min="17" max="17" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="50.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="66.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="52.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="56" t="str">
-        <f>'Listado Objetos de Dominio'!$A$2</f>
-        <v xml:space="preserve">Producto </v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="125" t="str">
+        <f>'[1]Listado Objetos de Dominio'!$A$2</f>
+        <v>Tienda</v>
+      </c>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="57" t="str">
-        <f>'Listado Objetos de Dominio'!$B$2</f>
-        <v xml:space="preserve">Objeto de dominio el cual nos representa un articulo que se puede comprar en la tienda </v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="126" t="str">
+        <f>'[1]Listado Objetos de Dominio'!$B$2</f>
+        <v>Objeto dominio que representa la tienda física o virtual donde se pueden realizar las compras.</v>
+      </c>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2096,29 +2177,29 @@
       <c r="P4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="35" t="str">
-        <f>A18</f>
-        <v>Crear producto</v>
-      </c>
-      <c r="R4" s="33" t="str">
-        <f>A20</f>
-        <v>Consultar producto</v>
-      </c>
-      <c r="S4" s="34" t="str">
+      <c r="Q4" s="34" t="str">
+        <f>A19</f>
+        <v>Crear Tienda</v>
+      </c>
+      <c r="R4" s="32" t="str">
         <f>A21</f>
-        <v>Modificar producto</v>
+        <v>Modificar Tienda</v>
+      </c>
+      <c r="S4" s="33" t="str">
+        <f>A23</f>
+        <v>Consultar Tienda</v>
       </c>
       <c r="T4" s="2" t="str">
         <f>A24</f>
-        <v>Eliminar producto</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+        <v>Eliminar Tienda</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2130,705 +2211,650 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="M5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="32"/>
+        <v>90</v>
+      </c>
+      <c r="Q5" s="31"/>
       <c r="R5" s="21"/>
       <c r="S5" s="26"/>
       <c r="T5" s="29"/>
     </row>
-    <row r="6" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
       <c r="K6" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="32"/>
+        <v>92</v>
+      </c>
+      <c r="Q6" s="31"/>
       <c r="R6" s="21"/>
       <c r="S6" s="26"/>
       <c r="T6" s="29"/>
     </row>
-    <row r="7" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
       <c r="K7" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="32"/>
+        <v>94</v>
+      </c>
+      <c r="Q7" s="31"/>
       <c r="R7" s="21"/>
       <c r="S7" s="26"/>
       <c r="T7" s="29"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>60</v>
+      </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>49</v>
+      <c r="H8" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
       <c r="K8" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="32"/>
+        <v>96</v>
+      </c>
+      <c r="Q8" s="31"/>
       <c r="R8" s="21"/>
       <c r="S8" s="26"/>
       <c r="T8" s="29"/>
     </row>
-    <row r="9" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="6"/>
       <c r="K9" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="29"/>
+    </row>
+    <row r="10" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>44</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
       <c r="K10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="29"/>
+    </row>
+    <row r="11" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="45"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="29"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="45"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="B13" s="130"/>
+      <c r="C13" s="131"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C14" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="50" t="str">
-        <f>A6</f>
-        <v>Nombre del producto</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="63"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="51" t="str">
-        <f>A10</f>
-        <v>Marca</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
+    <row r="15" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="149" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="44" t="str">
+        <f>_xlfn.CONCAT(A6)</f>
+        <v>Nombre Tienda</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59" t="s">
+      <c r="B17" s="121"/>
+      <c r="C17" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59" t="s">
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59" t="s">
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59" t="s">
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59" t="s">
+      <c r="P17" s="121"/>
+      <c r="Q17" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="69"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="18" t="s">
+      <c r="R17" s="123"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="128"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I18" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="61" t="s">
+      <c r="K18" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="18" t="s">
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="P18" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="Q17" s="18" t="s">
+      <c r="Q18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="R17" s="23" t="s">
+      <c r="R18" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="154" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="101" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="131" t="str">
-        <f>B2</f>
-        <v xml:space="preserve">Producto </v>
-      </c>
-      <c r="I18" s="139" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="99"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="P18" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q18" s="19" t="s">
+    <row r="19" spans="1:18" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="150" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="151"/>
+      <c r="C19" s="152" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="155" t="s">
         <v>86</v>
       </c>
-      <c r="R18" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="P19" s="88" t="s">
-        <v>79</v>
+      <c r="H19" s="71" t="str">
+        <f>'[1]Listado Objetos de Dominio'!A2</f>
+        <v>Tienda</v>
+      </c>
+      <c r="I19" s="156" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="71"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="R19" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="37" t="str">
-        <f>B2</f>
-        <v xml:space="preserve">Producto </v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="142" t="s">
-        <v>80</v>
-      </c>
-      <c r="P20" s="143" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q20" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="R20" s="25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="128" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="133" t="str">
-        <f>B2</f>
-        <v xml:space="preserve">Producto </v>
-      </c>
-      <c r="I21" s="136" t="s">
-        <v>74</v>
-      </c>
-      <c r="J21" s="125"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q21" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="R19" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="157"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="164" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="164" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="R20" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="165" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="166"/>
+      <c r="C21" s="167" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="168"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="170" t="s">
         <v>86</v>
       </c>
-      <c r="R21" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q22" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="R22" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="115"/>
+      <c r="H21" s="171" t="str">
+        <f>'[1]Listado Objetos de Dominio'!A2</f>
+        <v>Tienda</v>
+      </c>
+      <c r="I21" s="172" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="170"/>
+      <c r="K21" s="173"/>
+      <c r="L21" s="174"/>
+      <c r="M21" s="174"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q21" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="R21" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="176"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="181"/>
+      <c r="K22" s="184"/>
+      <c r="L22" s="185"/>
+      <c r="M22" s="185"/>
+      <c r="N22" s="186"/>
+      <c r="O22" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="R22" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="187" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="188"/>
+      <c r="C23" s="189" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="190"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="192" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="193" t="str">
+        <f>'[1]Listado Objetos de Dominio'!A2</f>
+        <v>Tienda</v>
+      </c>
+      <c r="I23" s="194" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" s="26"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="108"/>
       <c r="O23" s="26" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="P23" s="27" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="R23" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="144" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="145" t="str">
-        <f>B2</f>
-        <v xml:space="preserve">Producto </v>
-      </c>
-      <c r="I24" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="J24" s="144"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
+        <v>49</v>
+      </c>
+      <c r="R23" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="195" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="195"/>
+      <c r="C24" s="145" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="196" t="str">
+        <f>'[1]Listado Objetos de Dominio'!A2</f>
+        <v>Tienda</v>
+      </c>
+      <c r="I24" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="145"/>
       <c r="O24" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="P24" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q24" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="R24" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="P25" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q25" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="R25" s="31" t="s">
-        <v>94</v>
+        <v>108</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:N25"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:N19"/>
-    <mergeCell ref="A21:B23"/>
-    <mergeCell ref="C21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="K21:N23"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:F25"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K17:N17"/>
+  <mergeCells count="30">
+    <mergeCell ref="K21:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:N20"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:F17"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:F18"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:P17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
-    <hyperlink ref="H24" location="Producto!B2" display="Producto!B2" xr:uid="{9CFC97C1-FDC7-4BCC-A442-03CBBA306898}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{C31578C6-097C-48B5-85BE-E2B5695507BB}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{12E63051-0357-4C9D-ABE2-AAC9F4D1077D}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{1EEF2DB2-A99F-4C59-8304-4835FA7407E0}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{821E0C47-3835-4659-B0FA-56687A0DE151}"/>
-    <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{F66CECC3-2EE1-49F8-9E57-39E041254432}"/>
-    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
-    <hyperlink ref="C14" location="Producto!A6" display="Producto!A6" xr:uid="{30FD0FD0-5998-4948-A879-F08A1F15BD13}"/>
-    <hyperlink ref="C15" location="Producto!A10" display="Producto!A10" xr:uid="{BA32D049-0FB1-47DA-9C62-A17EE550141A}"/>
-    <hyperlink ref="H18" location="Producto!B2" display="Producto!B2" xr:uid="{559C491E-6B2E-4A69-8E2E-80A547D5D818}"/>
-    <hyperlink ref="H20" location="Producto!B2" display="Producto!B2" xr:uid="{7691385D-7331-40FC-AC5E-5B844EED2173}"/>
-    <hyperlink ref="H21" location="Producto!B2" display="Producto!B2" xr:uid="{9D97C2CA-8CC3-43B5-99CC-34D20D4F35D7}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B1545AD-29BB-4EFB-AF29-861461F898CC}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{222976DA-2773-4D9C-8902-96278F4BD9B9}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{548D45AE-4C0C-4BC6-BFAF-645D2F79D42D}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{4FEFAF7F-3604-4198-BC83-0D985CF737EC}"/>
+    <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{AD5A7DA9-ED06-440A-8D90-01C3811D5344}"/>
+    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{84716785-9C15-478F-8C41-22975DB4B474}"/>
+    <hyperlink ref="C15" location="Tienda!A6" display="Tienda!A6" xr:uid="{BD5920B6-9B56-4839-9BEF-634407E238B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2836,104 +2862,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="94.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="1"/>
+    <col min="16" max="16" width="94.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="56" t="str">
+      <c r="B2" s="125" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v xml:space="preserve">Proveedor </v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="57" t="str">
+      <c r="B3" s="126" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v>Objeto de dominio el cual representa una empresa que suministra productos a la tienda</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2982,15 +3008,15 @@
       <c r="P4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="35" t="str">
+      <c r="Q4" s="34" t="str">
         <f>A15</f>
         <v>Crear proveedor</v>
       </c>
-      <c r="R4" s="33" t="str">
+      <c r="R4" s="32" t="str">
         <f>A18</f>
         <v>Consultar proveedor</v>
       </c>
-      <c r="S4" s="34" t="str">
+      <c r="S4" s="33" t="str">
         <f>A19</f>
         <v>Modificar proveedor</v>
       </c>
@@ -2999,12 +3025,12 @@
         <v>Eliminar proveedor</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3016,37 +3042,37 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="M5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="32"/>
+        <v>42</v>
+      </c>
+      <c r="Q5" s="31"/>
       <c r="R5" s="21"/>
       <c r="S5" s="26"/>
       <c r="T5" s="29"/>
     </row>
-    <row r="6" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>44</v>
+      <c r="B6" s="42" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -3058,39 +3084,39 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
       <c r="K6" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="Q6" s="31"/>
       <c r="R6" s="21"/>
       <c r="S6" s="26"/>
       <c r="T6" s="29"/>
     </row>
-    <row r="7" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>44</v>
+      <c r="B7" s="41" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -3102,42 +3128,42 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
       <c r="K7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="32"/>
+        <v>44</v>
+      </c>
+      <c r="Q7" s="31"/>
       <c r="R7" s="21"/>
       <c r="S7" s="26"/>
       <c r="T7" s="29"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="130"/>
+      <c r="C9" s="131"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>21</v>
       </c>
@@ -3148,57 +3174,57 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
-        <v>60</v>
+    <row r="11" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="43" t="s">
+        <v>45</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="54" t="str">
+        <v>46</v>
+      </c>
+      <c r="C11" s="44" t="str">
         <f>A6</f>
         <v>Nombre</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59" t="s">
+      <c r="B13" s="121"/>
+      <c r="C13" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59" t="s">
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59" t="s">
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59" t="s">
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59" t="s">
+      <c r="P13" s="121"/>
+      <c r="Q13" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="69"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="R13" s="122"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="128"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
       <c r="G14" s="18" t="s">
         <v>28</v>
       </c>
@@ -3211,12 +3237,12 @@
       <c r="J14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="61" t="s">
+      <c r="K14" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
       <c r="O14" s="18" t="s">
         <v>30</v>
       </c>
@@ -3230,347 +3256,340 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="154" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="101" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="131" t="str">
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="67" t="str">
         <f>B2</f>
         <v xml:space="preserve">Proveedor </v>
       </c>
-      <c r="I15" s="139" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" s="99"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="95"/>
+      <c r="I15" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="71"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="75"/>
       <c r="O15" s="19" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="R15" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="149"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="153"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="132"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="144"/>
       <c r="O16" s="19" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="P16" s="20" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="R16" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="98"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="78"/>
       <c r="O17" s="19" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="R17" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="37" t="str">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="116"/>
+      <c r="C18" s="117" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="36" t="str">
         <f>B2</f>
         <v xml:space="preserve">Proveedor </v>
       </c>
-      <c r="I18" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="147" t="s">
-        <v>114</v>
-      </c>
-      <c r="P18" s="148" t="s">
-        <v>115</v>
+      <c r="I18" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="35"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" s="50" t="s">
+        <v>70</v>
       </c>
       <c r="Q18" s="22" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="R18" s="25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="103" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="128" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="133" t="str">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="80"/>
+      <c r="C19" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="97" t="str">
         <f>B2</f>
         <v xml:space="preserve">Proveedor </v>
       </c>
-      <c r="I19" s="136" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" s="125"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="109"/>
+      <c r="I19" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="103"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="108"/>
       <c r="O19" s="26" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="P19" s="27" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="Q19" s="27" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="R19" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="105"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="112"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="81"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="111"/>
       <c r="O20" s="26" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="P20" s="27" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="Q20" s="27" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="R20" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="115"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="83"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="114"/>
       <c r="O21" s="26" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="P21" s="27" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="27" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="R21" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="144" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="145" t="str">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="120"/>
+      <c r="C22" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="52" t="str">
         <f>B2</f>
         <v xml:space="preserve">Proveedor </v>
       </c>
-      <c r="I22" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="J22" s="141"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
+      <c r="I22" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="145"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
       <c r="O22" s="29" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="P22" s="30" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="30" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="R22" s="29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="120"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
       <c r="O23" s="29" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="P23" s="30" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="R23" s="29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="120"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
       <c r="O24" s="29" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="P24" s="30" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C15:F17"/>
-    <mergeCell ref="C19:F21"/>
-    <mergeCell ref="C22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A19:B21"/>
-    <mergeCell ref="A22:B24"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K19:N21"/>
+    <mergeCell ref="K22:N24"/>
     <mergeCell ref="K18:N18"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
@@ -3583,14 +3602,21 @@
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="K15:N17"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K19:N21"/>
-    <mergeCell ref="K22:N24"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:F17"/>
+    <mergeCell ref="C19:F21"/>
+    <mergeCell ref="C22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="A22:B24"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G19:G21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -3755,18 +3781,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3788,6 +3814,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3798,14 +3832,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>
